--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yuzvendra Singh Chahal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -636,7 +698,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>20/08/2017</t>
@@ -644,7 +705,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -684,7 +745,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>24/08/2017</t>
@@ -692,7 +752,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -732,7 +792,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>27/08/2017</t>
@@ -740,7 +799,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -780,7 +839,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>03/09/2017</t>
@@ -788,7 +846,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -828,7 +886,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>17/09/2017</t>
@@ -836,7 +893,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +945,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -928,7 +985,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>24/09/2017</t>
@@ -936,7 +992,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -976,7 +1032,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/09/2017</t>
@@ -984,7 +1039,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1024,7 +1079,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -1032,7 +1086,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1072,7 +1126,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>25/10/2017</t>
@@ -1080,7 +1133,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1120,7 +1173,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -1128,7 +1180,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,7 +1232,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1220,7 +1272,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -1228,7 +1279,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1268,7 +1319,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>17/12/2017</t>
@@ -1276,7 +1326,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1316,7 +1366,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>01/02/2018</t>
@@ -1324,7 +1373,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1364,7 +1413,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/02/2018</t>
@@ -1372,7 +1420,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1412,7 +1460,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>07/02/2018</t>
@@ -1420,7 +1467,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1460,7 +1507,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>10/02/2018</t>
@@ -1468,7 +1514,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1508,7 +1554,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -1516,7 +1561,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1556,7 +1601,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -1564,7 +1608,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1604,7 +1648,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>12/07/2018</t>
@@ -1612,7 +1655,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1664,7 +1707,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1704,7 +1747,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -1712,7 +1754,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1752,7 +1794,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>18/09/2018</t>
@@ -1760,7 +1801,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1800,7 +1841,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>19/09/2018</t>
@@ -1808,7 +1848,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1848,7 +1888,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -1856,7 +1895,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1896,7 +1935,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -1904,7 +1942,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1944,7 +1982,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>28/09/2018</t>
@@ -1952,7 +1989,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1992,7 +2029,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -2000,7 +2036,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2040,7 +2076,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -2048,7 +2083,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2100,7 +2135,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2140,7 +2175,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>18/01/2019</t>
@@ -2148,7 +2182,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2188,7 +2222,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>23/01/2019</t>
@@ -2196,7 +2229,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2236,7 +2269,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>26/01/2019</t>
@@ -2244,7 +2276,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2284,7 +2316,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>28/01/2019</t>
@@ -2292,7 +2323,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2344,7 +2375,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2396,7 +2427,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2448,7 +2479,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2488,7 +2519,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -2496,7 +2526,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2536,7 +2566,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>09/06/2019</t>
@@ -2544,7 +2573,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2584,7 +2613,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -2592,7 +2620,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2632,7 +2660,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -2640,7 +2667,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2680,7 +2707,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>27/06/2019</t>
@@ -2688,7 +2714,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2728,7 +2754,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -2736,7 +2761,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2776,7 +2801,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>02/07/2019</t>
@@ -2784,7 +2808,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2836,7 +2860,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2876,7 +2900,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -2884,7 +2907,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2936,7 +2959,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2976,7 +2999,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -2984,7 +3006,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3024,7 +3046,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -3032,7 +3053,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3084,7 +3105,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3124,7 +3145,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -3132,7 +3152,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3172,7 +3192,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -3180,7 +3199,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3220,7 +3239,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -3228,7 +3246,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3268,7 +3286,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -3276,7 +3293,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3328,7 +3345,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3368,7 +3385,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>06/02/2022</t>
@@ -3376,7 +3392,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3428,7 +3444,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3468,7 +3484,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -3476,7 +3491,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3528,7 +3543,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3568,7 +3583,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -3576,7 +3590,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3616,7 +3630,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>22/07/2022</t>
@@ -3624,7 +3637,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3664,7 +3677,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -3672,7 +3684,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3712,7 +3724,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>27/07/2022</t>
@@ -3720,7 +3731,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3760,7 +3771,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -3768,7 +3778,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3808,7 +3818,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -3816,7 +3825,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3868,7 +3877,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3908,7 +3917,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>10/01/2023</t>
@@ -3916,7 +3924,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3956,7 +3964,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>24/01/2023</t>
@@ -3964,7 +3971,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4003,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4025,7 +4032,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4062,7 +4069,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4099,7 +4106,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4136,7 +4143,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4173,7 +4180,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4210,7 +4217,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4247,7 +4254,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4284,7 +4291,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4321,7 +4328,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4358,7 +4365,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4395,7 +4402,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4432,7 +4439,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4469,7 +4476,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4506,7 +4513,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4543,7 +4550,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4580,7 +4587,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4617,7 +4624,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4654,7 +4661,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4691,7 +4698,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4728,7 +4735,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4765,7 +4772,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4802,7 +4809,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4839,7 +4846,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4876,7 +4883,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4913,7 +4920,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4950,7 +4957,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4987,7 +4994,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5024,7 +5031,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5061,7 +5068,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5098,7 +5105,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5135,7 +5142,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5172,7 +5179,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5209,7 +5216,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5246,7 +5253,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5283,7 +5290,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5320,7 +5327,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5357,7 +5364,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5394,7 +5401,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5431,7 +5438,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5468,7 +5475,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5505,7 +5512,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5542,7 +5549,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5579,7 +5586,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5616,7 +5623,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5653,7 +5660,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5690,7 +5697,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5727,7 +5734,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5764,7 +5771,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5801,7 +5808,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5838,7 +5845,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5875,7 +5882,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5912,7 +5919,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5949,7 +5956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5986,7 +5993,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6023,7 +6030,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6060,7 +6067,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6097,7 +6104,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6134,7 +6141,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6171,7 +6178,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6208,7 +6215,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6245,7 +6252,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6282,7 +6289,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6319,7 +6326,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6356,7 +6363,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6393,7 +6400,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6430,7 +6437,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6467,7 +6474,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6504,7 +6511,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6541,7 +6548,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6578,7 +6585,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6606,6 +6613,439 @@
           <t>2/43</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6671,357 +6672,608 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.71%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.64%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.65%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>11</v>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7031,9 +7283,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7041,11 +7290,16 @@
           <t>4697</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6672,6 +6671,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6684,6 +6687,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6696,6 +6703,10 @@
           <t>4480</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6711,6 +6722,9 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6753,6 +6767,10 @@
           <t>4526</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6798,6 +6816,9 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6843,6 +6864,9 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6858,6 +6882,9 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6870,6 +6897,10 @@
           <t>4618</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6885,6 +6916,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6900,6 +6934,9 @@
       <c r="B15" t="n">
         <v>11</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6912,6 +6949,10 @@
           <t>4624</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6954,6 +6995,10 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6969,6 +7014,9 @@
       <c r="B19" t="n">
         <v>11</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6981,6 +7029,11 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6988,318 +7041,11 @@
           <t>4697</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4063.xlsx
@@ -6625,7 +6625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6668,7 +6668,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -6684,7 +6684,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -6700,7 +6700,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -6716,11 +6716,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -6734,11 +6734,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6764,7 +6764,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -6780,27 +6780,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.64%</t>
-        </is>
-      </c>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6810,12 +6796,10 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -6828,27 +6812,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.05%</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6858,14 +6830,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
@@ -6876,12 +6856,10 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -6894,7 +6872,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -6910,11 +6888,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -6928,7 +6906,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6946,10 +6924,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -6962,27 +6942,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.65%</t>
-        </is>
-      </c>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6992,7 +6958,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -7008,11 +6974,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7026,26 +6992,950 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19.57%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
